--- a/data/trans_orig/OT1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OT1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9DBEAA-6B7C-48A8-990A-5203BFF91D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D50E0F6-F232-4C7E-97D3-63649E041D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{74DAEC29-1782-4EBE-8367-8AF6B674A0BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC8BBC6E-9A23-4CF9-AB1E-D1CADADD8893}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="727">
   <si>
     <t>Población con diagnóstico de otra enfermedad 1 en 2007 (Tasa respuesta: 4,15%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -134,7 +134,7 @@
     <t>Hernia de Hiato</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -155,7 +155,7 @@
     <t>96,32%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -176,7 +176,7 @@
     <t>97,77%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -245,73 +245,73 @@
     <t>16,57%</t>
   </si>
   <si>
-    <t>64,88%</t>
+    <t>66,89%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>40,57%</t>
+    <t>42,45%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>64,38%</t>
+    <t>54,5%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>31,26%</t>
+    <t>30,63%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>71,47%</t>
+    <t>76,66%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>43,52%</t>
+    <t>35,39%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>68,56%</t>
+    <t>66,44%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>35,94%</t>
+    <t>36,63%</t>
   </si>
   <si>
     <t>70,15%</t>
@@ -323,16 +323,16 @@
     <t>39,97%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -344,1753 +344,1720 @@
     <t>34,3%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>16,71%</t>
+    <t>16,64%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>9,76%</t>
+    <t>10,78%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>13,01%</t>
+    <t>11,71%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>8,42%</t>
+    <t>7,0%</t>
   </si>
   <si>
     <t>19,02%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>15,1%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>30,05%</t>
+    <t>28,54%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otra enfermedad 1 en 2016 (Tasa respuesta: 6,36%)</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otra enfermedad 1 en 2015 (Tasa respuesta: 6,36%)</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>1,38%</t>
@@ -2099,73 +2066,64 @@
     <t>0,31%</t>
   </si>
   <si>
+    <t>4,28%</t>
+  </si>
+  <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
     <t>14,48%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>53,33%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>6,99%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>2,35%</t>
   </si>
   <si>
     <t>Población con diagnóstico de otra enfermedad 1 en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2673,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A897B26-3FCF-4FCE-A811-78A8E699C847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E6FF32-06B7-42C4-9B35-82E5251010F5}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6490,7 +6448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F57D35C-7A74-4165-975F-DCA0E4D7FFAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8230F934-7C8C-4351-B742-DF7670E97E8A}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7672,7 +7630,7 @@
         <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7645,13 @@
         <v>2100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -7702,13 +7660,13 @@
         <v>17109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -7717,13 +7675,13 @@
         <v>19209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7696,13 @@
         <v>4917</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -7753,13 +7711,13 @@
         <v>5951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -7768,13 +7726,13 @@
         <v>10868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,7 +7806,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7863,7 +7821,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7878,7 +7836,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,7 +7851,7 @@
         <v>17366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>164</v>
@@ -7908,13 +7866,13 @@
         <v>19371</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -7923,13 +7881,13 @@
         <v>36737</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,14 +7902,14 @@
         <v>1030</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
@@ -7965,7 +7923,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -7974,13 +7932,13 @@
         <v>1030</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,7 +7959,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8016,7 +7974,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8031,7 +7989,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,7 +8010,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8067,7 +8025,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8082,7 +8040,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8055,13 @@
         <v>4152</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -8112,13 +8070,13 @@
         <v>3376</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -8127,13 +8085,13 @@
         <v>7529</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8106,13 @@
         <v>1963</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8163,13 +8121,13 @@
         <v>1125</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -8178,13 +8136,13 @@
         <v>3089</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8157,13 @@
         <v>1131</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -8214,13 +8172,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -8229,13 +8187,13 @@
         <v>2314</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,13 +8208,13 @@
         <v>2128</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -8265,13 +8223,13 @@
         <v>2039</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -8280,13 +8238,13 @@
         <v>4167</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,7 +8265,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -8316,13 +8274,13 @@
         <v>43642</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -8331,13 +8289,13 @@
         <v>43642</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8310,13 @@
         <v>4223</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -8367,13 +8325,13 @@
         <v>6369</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -8382,13 +8340,13 @@
         <v>10592</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,37 +8420,37 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,13 +8465,13 @@
         <v>8947</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -8522,13 +8480,13 @@
         <v>4669</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M41" s="7">
         <v>13</v>
@@ -8537,13 +8495,13 @@
         <v>13616</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,37 +8522,37 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,37 +8573,37 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,7 +8624,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -8675,13 +8633,13 @@
         <v>988</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -8690,13 +8648,13 @@
         <v>988</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8711,14 +8669,14 @@
         <v>1062</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
@@ -8732,7 +8690,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -8747,7 +8705,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8762,13 +8720,13 @@
         <v>3836</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -8777,13 +8735,13 @@
         <v>1078</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M46" s="7">
         <v>5</v>
@@ -8792,10 +8750,10 @@
         <v>4914</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>244</v>
@@ -8819,7 +8777,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -8981,10 +8939,10 @@
         <v>4013</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>271</v>
@@ -9091,22 +9049,22 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9121,13 +9079,13 @@
         <v>12522</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H53" s="7">
         <v>9</v>
@@ -9136,13 +9094,13 @@
         <v>8987</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M53" s="7">
         <v>22</v>
@@ -9151,13 +9109,13 @@
         <v>21509</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9193,22 +9151,22 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9238,13 +9196,13 @@
         <v>969</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -9253,13 +9211,13 @@
         <v>969</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9274,13 +9232,13 @@
         <v>2008</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H56" s="7">
         <v>4</v>
@@ -9289,13 +9247,13 @@
         <v>4102</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
@@ -9304,13 +9262,13 @@
         <v>6111</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,13 +9283,13 @@
         <v>6638</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H57" s="7">
         <v>4</v>
@@ -9340,13 +9298,13 @@
         <v>4083</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M57" s="7">
         <v>10</v>
@@ -9355,13 +9313,13 @@
         <v>10722</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="Q57" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -9376,13 +9334,13 @@
         <v>4105</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -9391,13 +9349,13 @@
         <v>964</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -9406,13 +9364,13 @@
         <v>5069</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -9427,7 +9385,7 @@
         <v>2965</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>315</v>
@@ -9460,10 +9418,10 @@
         <v>319</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9478,13 +9436,13 @@
         <v>3960</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -9493,13 +9451,13 @@
         <v>1002</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M60" s="7">
         <v>4</v>
@@ -9508,13 +9466,13 @@
         <v>4961</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -9529,13 +9487,13 @@
         <v>3858</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H61" s="7">
         <v>31</v>
@@ -9544,13 +9502,13 @@
         <v>32872</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M61" s="7">
         <v>35</v>
@@ -9559,13 +9517,13 @@
         <v>36730</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9580,13 +9538,13 @@
         <v>986</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H62" s="7">
         <v>5</v>
@@ -9595,13 +9553,13 @@
         <v>4984</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M62" s="7">
         <v>6</v>
@@ -9610,13 +9568,13 @@
         <v>5969</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -9690,7 +9648,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -9705,7 +9663,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -9720,7 +9678,7 @@
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -9735,13 +9693,13 @@
         <v>47804</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H65" s="7">
         <v>40</v>
@@ -9750,13 +9708,13 @@
         <v>42143</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M65" s="7">
         <v>87</v>
@@ -9765,13 +9723,13 @@
         <v>89947</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -9786,13 +9744,13 @@
         <v>1030</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -9801,13 +9759,13 @@
         <v>2065</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -9816,13 +9774,13 @@
         <v>3095</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -9843,7 +9801,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H67" s="7">
         <v>3</v>
@@ -9852,13 +9810,13 @@
         <v>2980</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M67" s="7">
         <v>3</v>
@@ -9867,13 +9825,13 @@
         <v>2980</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -9888,13 +9846,13 @@
         <v>2008</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>365</v>
+        <v>248</v>
       </c>
       <c r="H68" s="7">
         <v>5</v>
@@ -9903,13 +9861,13 @@
         <v>5090</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M68" s="7">
         <v>7</v>
@@ -9918,13 +9876,13 @@
         <v>7099</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -9939,13 +9897,13 @@
         <v>17101</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H69" s="7">
         <v>8</v>
@@ -9954,13 +9912,13 @@
         <v>8623</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="M69" s="7">
         <v>24</v>
@@ -9969,13 +9927,13 @@
         <v>25724</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -9990,13 +9948,13 @@
         <v>12836</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H70" s="7">
         <v>4</v>
@@ -10005,13 +9963,13 @@
         <v>4173</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M70" s="7">
         <v>16</v>
@@ -10020,7 +9978,7 @@
         <v>17009</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>385</v>
@@ -10059,10 +10017,10 @@
         <v>390</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="M71" s="7">
         <v>13</v>
@@ -10077,7 +10035,7 @@
         <v>393</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -10092,13 +10050,13 @@
         <v>11848</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H72" s="7">
         <v>9</v>
@@ -10107,13 +10065,13 @@
         <v>10459</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M72" s="7">
         <v>20</v>
@@ -10122,13 +10080,13 @@
         <v>22307</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -10143,13 +10101,13 @@
         <v>8893</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>403</v>
+        <v>176</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H73" s="7">
         <v>115</v>
@@ -10158,13 +10116,13 @@
         <v>125713</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M73" s="7">
         <v>124</v>
@@ -10173,13 +10131,13 @@
         <v>134606</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10194,13 +10152,13 @@
         <v>13991</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H74" s="7">
         <v>20</v>
@@ -10209,7 +10167,7 @@
         <v>21317</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>414</v>
@@ -10307,7 +10265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11831A9F-853B-4B5D-BD71-2046E5E43C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CD8D0-229D-4332-B75D-50C4C6199C02}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10752,7 +10710,7 @@
         <v>1541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
@@ -10971,13 +10929,13 @@
         <v>1061</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11066,22 +11024,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11096,13 +11054,13 @@
         <v>11634</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -11111,10 +11069,10 @@
         <v>11595</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>461</v>
@@ -11168,22 +11126,22 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11219,22 +11177,22 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11264,7 +11222,7 @@
         <v>969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -11330,7 +11288,7 @@
         <v>910</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -11369,7 +11327,7 @@
         <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>472</v>
@@ -11384,10 +11342,10 @@
         <v>473</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11402,13 +11360,13 @@
         <v>952</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -11417,13 +11375,13 @@
         <v>969</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -11432,13 +11390,13 @@
         <v>1920</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11453,13 +11411,13 @@
         <v>1903</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -11468,13 +11426,13 @@
         <v>4358</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -11483,13 +11441,13 @@
         <v>6261</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11504,13 +11462,13 @@
         <v>4220</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -11519,13 +11477,13 @@
         <v>27057</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -11534,13 +11492,13 @@
         <v>31277</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11570,13 +11528,13 @@
         <v>1194</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -11585,13 +11543,13 @@
         <v>1194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>499</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11665,7 +11623,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -11680,7 +11638,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -11695,7 +11653,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>501</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11710,13 +11668,13 @@
         <v>23383</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>504</v>
+        <v>262</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -11725,13 +11683,13 @@
         <v>25329</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>274</v>
+        <v>502</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -11740,13 +11698,13 @@
         <v>48712</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>508</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11767,7 +11725,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -11776,13 +11734,13 @@
         <v>1016</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -11791,13 +11749,13 @@
         <v>1016</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>513</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11818,7 +11776,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -11833,7 +11791,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -11848,7 +11806,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>501</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11869,7 +11827,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -11884,7 +11842,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -11899,7 +11857,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>501</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11914,13 +11872,13 @@
         <v>2105</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -11929,13 +11887,13 @@
         <v>3345</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>368</v>
+        <v>511</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -11944,13 +11902,13 @@
         <v>5450</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11965,13 +11923,13 @@
         <v>5670</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -11980,13 +11938,13 @@
         <v>4404</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>524</v>
+        <v>382</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -11995,13 +11953,13 @@
         <v>10074</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>192</v>
+        <v>523</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>351</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12016,13 +11974,13 @@
         <v>912</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -12037,7 +11995,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -12046,13 +12004,13 @@
         <v>912</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>177</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12067,13 +12025,13 @@
         <v>7358</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -12082,13 +12040,13 @@
         <v>1085</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -12097,13 +12055,13 @@
         <v>8442</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>536</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12118,13 +12076,13 @@
         <v>5425</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>539</v>
+        <v>132</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H37" s="7">
         <v>46</v>
@@ -12133,13 +12091,13 @@
         <v>48668</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -12148,13 +12106,13 @@
         <v>54093</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12172,10 +12130,10 @@
         <v>39</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -12184,13 +12142,13 @@
         <v>5102</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>549</v>
+        <v>179</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -12199,13 +12157,13 @@
         <v>8645</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>552</v>
+        <v>344</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12279,7 +12237,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -12294,7 +12252,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -12309,7 +12267,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>554</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12324,13 +12282,13 @@
         <v>15331</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H41" s="7">
         <v>18</v>
@@ -12339,13 +12297,13 @@
         <v>20416</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M41" s="7">
         <v>34</v>
@@ -12354,13 +12312,13 @@
         <v>35746</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12381,7 +12339,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -12390,13 +12348,13 @@
         <v>1120</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -12405,13 +12363,13 @@
         <v>1120</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>567</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12432,7 +12390,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -12447,7 +12405,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -12462,7 +12420,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>554</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12483,7 +12441,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -12498,7 +12456,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -12513,7 +12471,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>554</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12528,13 +12486,13 @@
         <v>1138</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -12549,7 +12507,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -12558,13 +12516,13 @@
         <v>1138</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>571</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12579,13 +12537,13 @@
         <v>2020</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -12594,13 +12552,13 @@
         <v>4498</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -12609,13 +12567,13 @@
         <v>6518</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>577</v>
+        <v>386</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12630,13 +12588,13 @@
         <v>1132</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -12651,7 +12609,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -12660,13 +12618,13 @@
         <v>1132</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>583</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12681,13 +12639,13 @@
         <v>4976</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -12702,7 +12660,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M48" s="7">
         <v>5</v>
@@ -12711,13 +12669,13 @@
         <v>4975</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>587</v>
+        <v>246</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12732,13 +12690,13 @@
         <v>2863</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>161</v>
+        <v>580</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="H49" s="7">
         <v>24</v>
@@ -12747,13 +12705,13 @@
         <v>26018</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M49" s="7">
         <v>27</v>
@@ -12762,13 +12720,13 @@
         <v>28881</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12783,13 +12741,13 @@
         <v>2104</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>597</v>
+        <v>469</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -12798,13 +12756,13 @@
         <v>2664</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -12816,10 +12774,10 @@
         <v>430</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>601</v>
+        <v>363</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12923,7 +12881,7 @@
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -12938,13 +12896,13 @@
         <v>21258</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="H53" s="7">
         <v>25</v>
@@ -12953,13 +12911,13 @@
         <v>27863</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="M53" s="7">
         <v>46</v>
@@ -12968,13 +12926,13 @@
         <v>49121</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13025,7 +12983,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13040,13 +12998,13 @@
         <v>932</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>612</v>
+        <v>192</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -13070,13 +13028,13 @@
         <v>932</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>400</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13106,13 +13064,13 @@
         <v>1075</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>47</v>
+        <v>545</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -13121,13 +13079,13 @@
         <v>1075</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>616</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13142,13 +13100,13 @@
         <v>2029</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -13157,13 +13115,13 @@
         <v>1376</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>619</v>
+        <v>179</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="M57" s="7">
         <v>3</v>
@@ -13172,13 +13130,13 @@
         <v>3405</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -13193,13 +13151,13 @@
         <v>982</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -13208,13 +13166,13 @@
         <v>2295</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>626</v>
+        <v>388</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>287</v>
+        <v>612</v>
       </c>
       <c r="M58" s="7">
         <v>3</v>
@@ -13223,13 +13181,13 @@
         <v>3277</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>315</v>
+        <v>613</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -13244,13 +13202,13 @@
         <v>1809</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>628</v>
+        <v>396</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -13259,13 +13217,13 @@
         <v>1233</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>473</v>
+        <v>615</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -13274,13 +13232,13 @@
         <v>3042</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>393</v>
+        <v>616</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -13295,13 +13253,13 @@
         <v>3738</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>633</v>
+        <v>359</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -13310,13 +13268,13 @@
         <v>2824</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>635</v>
+        <v>139</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="M60" s="7">
         <v>6</v>
@@ -13325,13 +13283,13 @@
         <v>6561</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>32</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -13346,13 +13304,13 @@
         <v>3686</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="H61" s="7">
         <v>50</v>
@@ -13361,13 +13319,13 @@
         <v>56848</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M61" s="7">
         <v>54</v>
@@ -13376,13 +13334,13 @@
         <v>60534</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -13412,13 +13370,13 @@
         <v>2221</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
@@ -13427,13 +13385,13 @@
         <v>2221</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>302</v>
+        <v>635</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -13507,7 +13465,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>130</v>
+        <v>637</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -13522,7 +13480,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -13537,7 +13495,7 @@
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13552,13 +13510,13 @@
         <v>74752</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>655</v>
+        <v>18</v>
       </c>
       <c r="H65" s="7">
         <v>84</v>
@@ -13567,13 +13525,13 @@
         <v>92509</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="M65" s="7">
         <v>157</v>
@@ -13582,13 +13540,13 @@
         <v>167261</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -13609,7 +13567,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>130</v>
+        <v>637</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -13618,13 +13576,13 @@
         <v>2136</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>54</v>
+        <v>649</v>
       </c>
       <c r="M66" s="7">
         <v>2</v>
@@ -13633,13 +13591,13 @@
         <v>2136</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>663</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -13654,13 +13612,13 @@
         <v>932</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>664</v>
+        <v>48</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -13675,7 +13633,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -13684,13 +13642,13 @@
         <v>932</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>516</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -13711,7 +13669,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>130</v>
+        <v>637</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -13720,13 +13678,13 @@
         <v>2044</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>667</v>
+        <v>295</v>
       </c>
       <c r="M68" s="7">
         <v>2</v>
@@ -13735,13 +13693,13 @@
         <v>2044</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>310</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -13756,13 +13714,13 @@
         <v>5272</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>187</v>
+        <v>657</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="H69" s="7">
         <v>5</v>
@@ -13771,13 +13729,13 @@
         <v>5631</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>672</v>
+        <v>59</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="M69" s="7">
         <v>10</v>
@@ -13786,13 +13744,13 @@
         <v>10903</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -13807,13 +13765,13 @@
         <v>8672</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>385</v>
+        <v>664</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="H70" s="7">
         <v>16</v>
@@ -13822,13 +13780,13 @@
         <v>17791</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="M70" s="7">
         <v>24</v>
@@ -13837,13 +13795,13 @@
         <v>26464</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>379</v>
+        <v>669</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>681</v>
+        <v>370</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -13858,13 +13816,13 @@
         <v>4805</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>363</v>
+        <v>671</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="H71" s="7">
         <v>3</v>
@@ -13873,13 +13831,13 @@
         <v>4310</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>539</v>
+        <v>675</v>
       </c>
       <c r="M71" s="7">
         <v>8</v>
@@ -13888,13 +13846,13 @@
         <v>9115</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>687</v>
+        <v>347</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>688</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -13909,13 +13867,13 @@
         <v>19877</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>141</v>
+        <v>678</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="H72" s="7">
         <v>8</v>
@@ -13924,13 +13882,13 @@
         <v>9211</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>635</v>
+        <v>139</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="M72" s="7">
         <v>28</v>
@@ -13939,13 +13897,13 @@
         <v>29088</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>317</v>
+        <v>682</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -13963,10 +13921,10 @@
         <v>14</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>695</v>
+        <v>386</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="H73" s="7">
         <v>154</v>
@@ -13975,13 +13933,13 @@
         <v>166705</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="M73" s="7">
         <v>171</v>
@@ -13990,13 +13948,13 @@
         <v>184008</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -14014,10 +13972,10 @@
         <v>392</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>501</v>
+        <v>193</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>703</v>
+        <v>200</v>
       </c>
       <c r="H74" s="7">
         <v>10</v>
@@ -14026,13 +13984,13 @@
         <v>12243</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>638</v>
+        <v>692</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>705</v>
+        <v>394</v>
       </c>
       <c r="M74" s="7">
         <v>15</v>
@@ -14041,13 +13999,13 @@
         <v>17890</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -14124,7 +14082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AEE33E-BE6F-4D6A-BF7D-696AA1E4B036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8908202-6059-485D-8C7A-06C3A5C8AA00}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14141,7 +14099,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -14251,7 +14209,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -14266,7 +14224,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -14281,7 +14239,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -14305,7 +14263,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -14320,7 +14278,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -14335,7 +14293,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -14356,7 +14314,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -14371,7 +14329,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -14386,7 +14344,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -14407,7 +14365,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -14422,7 +14380,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -14437,7 +14395,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -14458,7 +14416,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -14473,7 +14431,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -14488,7 +14446,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -14509,7 +14467,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -14524,7 +14482,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -14539,7 +14497,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -14560,7 +14518,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -14575,7 +14533,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -14590,7 +14548,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -14611,7 +14569,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -14626,7 +14584,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -14641,7 +14599,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -14662,7 +14620,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -14677,7 +14635,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -14692,7 +14650,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -14713,7 +14671,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -14728,7 +14686,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -14743,7 +14701,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -14764,7 +14722,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -14779,7 +14737,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -14794,7 +14752,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -14865,7 +14823,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -14880,7 +14838,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -14895,7 +14853,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -14919,7 +14877,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -14934,7 +14892,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -14949,7 +14907,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -14970,7 +14928,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -14985,7 +14943,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -15000,7 +14958,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -15021,7 +14979,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -15036,7 +14994,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -15051,7 +15009,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -15072,7 +15030,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -15087,7 +15045,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -15102,7 +15060,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -15123,7 +15081,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -15138,7 +15096,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -15153,7 +15111,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -15174,7 +15132,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -15189,7 +15147,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -15204,7 +15162,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -15225,7 +15183,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -15240,7 +15198,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -15255,7 +15213,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -15276,7 +15234,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -15291,7 +15249,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -15306,7 +15264,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -15327,7 +15285,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -15342,7 +15300,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -15357,7 +15315,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -15378,7 +15336,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -15393,7 +15351,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -15408,7 +15366,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -15479,7 +15437,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>19</v>
@@ -15494,7 +15452,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -15509,7 +15467,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -15533,7 +15491,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -15548,7 +15506,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -15563,7 +15521,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -15584,7 +15542,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -15599,7 +15557,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -15614,7 +15572,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -15635,7 +15593,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -15650,7 +15608,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -15665,7 +15623,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -15686,7 +15644,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -15701,7 +15659,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -15716,7 +15674,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -15737,7 +15695,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -15752,7 +15710,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -15767,7 +15725,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -15788,7 +15746,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -15803,7 +15761,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -15818,7 +15776,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -15839,7 +15797,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -15854,7 +15812,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -15869,7 +15827,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -15890,7 +15848,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -15905,7 +15863,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -15920,7 +15878,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -15941,7 +15899,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -15956,7 +15914,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -15971,7 +15929,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -15992,7 +15950,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -16007,7 +15965,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -16022,7 +15980,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -16093,7 +16051,7 @@
         <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>19</v>
@@ -16108,7 +16066,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>19</v>
@@ -16123,7 +16081,7 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -16147,7 +16105,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -16162,7 +16120,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -16177,7 +16135,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -16198,7 +16156,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -16213,7 +16171,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -16228,7 +16186,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -16249,7 +16207,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -16264,7 +16222,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -16279,7 +16237,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -16300,7 +16258,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -16315,7 +16273,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -16330,7 +16288,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -16351,7 +16309,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -16366,7 +16324,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -16381,7 +16339,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -16402,7 +16360,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -16417,7 +16375,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -16432,7 +16390,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -16453,7 +16411,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -16468,7 +16426,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -16483,7 +16441,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -16504,7 +16462,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -16519,7 +16477,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -16534,7 +16492,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -16555,7 +16513,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -16570,7 +16528,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -16585,7 +16543,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -16606,7 +16564,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -16621,7 +16579,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -16636,7 +16594,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -16707,7 +16665,7 @@
         <v>17</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>19</v>
@@ -16722,7 +16680,7 @@
         <v>17</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>19</v>
@@ -16737,7 +16695,7 @@
         <v>17</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>19</v>
@@ -16761,7 +16719,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -16776,22 +16734,22 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -16812,7 +16770,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -16827,22 +16785,22 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -16863,7 +16821,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -16878,22 +16836,22 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -16914,7 +16872,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -16929,22 +16887,22 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -16965,7 +16923,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -16980,22 +16938,22 @@
         <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0</v>
-      </c>
-      <c r="N57" s="7">
-        <v>0</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -17016,7 +16974,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -17031,22 +16989,22 @@
         <v>12</v>
       </c>
       <c r="L58" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -17067,7 +17025,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -17082,22 +17040,22 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7">
-        <v>0</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -17118,7 +17076,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -17133,22 +17091,22 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7">
-        <v>0</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -17169,7 +17127,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -17184,22 +17142,22 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
-      </c>
-      <c r="N61" s="7">
-        <v>0</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -17220,7 +17178,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -17235,22 +17193,22 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0</v>
-      </c>
-      <c r="N62" s="7">
-        <v>0</v>
-      </c>
-      <c r="O62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -17321,7 +17279,7 @@
         <v>17</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>19</v>
@@ -17336,7 +17294,7 @@
         <v>17</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>19</v>
@@ -17351,7 +17309,7 @@
         <v>17</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>19</v>
@@ -17375,7 +17333,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -17390,7 +17348,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -17405,7 +17363,7 @@
         <v>12</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -17426,7 +17384,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -17441,7 +17399,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -17456,7 +17414,7 @@
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -17477,7 +17435,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -17492,7 +17450,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -17507,7 +17465,7 @@
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -17528,7 +17486,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -17543,7 +17501,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -17558,7 +17516,7 @@
         <v>12</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -17579,7 +17537,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -17594,7 +17552,7 @@
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -17609,7 +17567,7 @@
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -17630,7 +17588,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -17645,7 +17603,7 @@
         <v>12</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -17660,7 +17618,7 @@
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -17681,7 +17639,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -17696,7 +17654,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -17711,7 +17669,7 @@
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -17732,7 +17690,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -17747,7 +17705,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -17762,7 +17720,7 @@
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -17783,7 +17741,7 @@
         <v>12</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -17798,7 +17756,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -17813,7 +17771,7 @@
         <v>12</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -17834,7 +17792,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -17849,7 +17807,7 @@
         <v>12</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -17864,7 +17822,7 @@
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
